--- a/car.xlsx
+++ b/car.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="sensor" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>车型</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>乘坐空间</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>一般</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -265,6 +261,38 @@
   </si>
   <si>
     <t>2驱，底盘低</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUD显示</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>选装</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>领克01</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地22</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.7秒</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>35米</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1229,7 +1257,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1242,16 +1270,16 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G1" t="s">
         <v>18</v>
@@ -1260,10 +1288,10 @@
         <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
@@ -1272,34 +1300,34 @@
         <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="P1" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="S1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -1310,28 +1338,28 @@
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>26</v>
@@ -1342,32 +1370,32 @@
       <c r="M2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1378,28 +1406,28 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>26</v>
@@ -1410,32 +1438,32 @@
       <c r="M3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="T3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1446,16 +1474,16 @@
         <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>19</v>
@@ -1464,10 +1492,10 @@
         <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>26</v>
@@ -1478,20 +1506,20 @@
       <c r="M4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>7</v>
+      <c r="N4" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S4" s="3" t="s">
         <v>11</v>
@@ -1499,11 +1527,11 @@
       <c r="T4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="U4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>11</v>
+      <c r="V4" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1514,28 +1542,28 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>25</v>
@@ -1544,22 +1572,22 @@
         <v>9</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>11</v>
@@ -1567,159 +1595,224 @@
       <c r="T5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="U5" s="3" t="s">
+      <c r="U5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="V5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="V6" s="1"/>
+      <c r="P6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="V7" s="1"/>
+      <c r="U7" s="1"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="V8" s="1"/>
+      <c r="U8" s="1"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="V9" s="1"/>
+      <c r="U9" s="1"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="V10" s="1"/>
+      <c r="U10" s="1"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="V11" s="1"/>
+      <c r="U11" s="1"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="V12" s="1"/>
+      <c r="U12" s="1"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="V13" s="1"/>
+      <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="V14" s="1"/>
+      <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="V15" s="1"/>
+      <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="V16" s="1"/>
-    </row>
-    <row r="17" spans="22:22">
-      <c r="V17" s="1"/>
-    </row>
-    <row r="18" spans="22:22">
-      <c r="V18" s="1"/>
-    </row>
-    <row r="19" spans="22:22">
-      <c r="V19" s="1"/>
-    </row>
-    <row r="20" spans="22:22">
-      <c r="V20" s="1"/>
-    </row>
-    <row r="21" spans="22:22">
-      <c r="V21" s="1"/>
-    </row>
-    <row r="22" spans="22:22">
-      <c r="V22" s="1"/>
-    </row>
-    <row r="23" spans="22:22">
-      <c r="V23" s="1"/>
-    </row>
-    <row r="24" spans="22:22">
-      <c r="V24" s="1"/>
-    </row>
-    <row r="25" spans="22:22">
-      <c r="V25" s="1"/>
-    </row>
-    <row r="26" spans="22:22">
-      <c r="V26" s="1"/>
-    </row>
-    <row r="27" spans="22:22">
-      <c r="V27" s="1"/>
-    </row>
-    <row r="28" spans="22:22">
-      <c r="V28" s="1"/>
-    </row>
-    <row r="29" spans="22:22">
-      <c r="V29" s="1"/>
-    </row>
-    <row r="30" spans="22:22">
-      <c r="V30" s="1"/>
-    </row>
-    <row r="31" spans="22:22">
-      <c r="V31" s="1"/>
-    </row>
-    <row r="32" spans="22:22">
-      <c r="V32" s="1"/>
-    </row>
-    <row r="33" spans="22:22">
-      <c r="V33" s="1"/>
-    </row>
-    <row r="34" spans="22:22">
-      <c r="V34" s="1"/>
-    </row>
-    <row r="35" spans="22:22">
-      <c r="V35" s="1"/>
-    </row>
-    <row r="36" spans="22:22">
-      <c r="V36" s="1"/>
-    </row>
-    <row r="37" spans="22:22">
-      <c r="V37" s="1"/>
-    </row>
-    <row r="38" spans="22:22">
-      <c r="V38" s="1"/>
-    </row>
-    <row r="39" spans="22:22">
-      <c r="V39" s="1"/>
-    </row>
-    <row r="40" spans="22:22">
-      <c r="V40" s="1"/>
-    </row>
-    <row r="41" spans="22:22">
-      <c r="V41" s="1"/>
-    </row>
-    <row r="42" spans="22:22">
-      <c r="V42" s="1"/>
-    </row>
-    <row r="43" spans="22:22">
-      <c r="V43" s="1"/>
-    </row>
-    <row r="44" spans="22:22">
-      <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="22:22">
-      <c r="V45" s="1"/>
-    </row>
-    <row r="46" spans="22:22">
-      <c r="V46" s="1"/>
-    </row>
-    <row r="47" spans="22:22">
-      <c r="V47" s="1"/>
-    </row>
-    <row r="48" spans="22:22">
-      <c r="V48" s="1"/>
-    </row>
-    <row r="49" spans="22:22">
-      <c r="V49" s="1"/>
-    </row>
-    <row r="50" spans="22:22">
-      <c r="V50" s="1"/>
-    </row>
-    <row r="51" spans="22:22">
-      <c r="V51" s="1"/>
-    </row>
-    <row r="52" spans="22:22">
-      <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="22:22">
-      <c r="V53" s="1"/>
-    </row>
-    <row r="54" spans="22:22">
-      <c r="V54" s="1"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="21:21">
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="21:21">
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="21:21">
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="21:21">
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="21:21">
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="21:21">
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="21:21">
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="21:21">
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="21:21">
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="21:21">
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="21:21">
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="21:21">
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="21:21">
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="21:21">
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="21:21">
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="21:21">
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="21:21">
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="21:21">
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="21:21">
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="21:21">
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="21:21">
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="21:21">
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="21:21">
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="21:21">
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="21:21">
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="21:21">
+      <c r="U42" s="1"/>
+    </row>
+    <row r="43" spans="21:21">
+      <c r="U43" s="1"/>
+    </row>
+    <row r="44" spans="21:21">
+      <c r="U44" s="1"/>
+    </row>
+    <row r="45" spans="21:21">
+      <c r="U45" s="1"/>
+    </row>
+    <row r="46" spans="21:21">
+      <c r="U46" s="1"/>
+    </row>
+    <row r="47" spans="21:21">
+      <c r="U47" s="1"/>
+    </row>
+    <row r="48" spans="21:21">
+      <c r="U48" s="1"/>
+    </row>
+    <row r="49" spans="21:21">
+      <c r="U49" s="1"/>
+    </row>
+    <row r="50" spans="21:21">
+      <c r="U50" s="1"/>
+    </row>
+    <row r="51" spans="21:21">
+      <c r="U51" s="1"/>
+    </row>
+    <row r="52" spans="21:21">
+      <c r="U52" s="1"/>
+    </row>
+    <row r="53" spans="21:21">
+      <c r="U53" s="1"/>
+    </row>
+    <row r="54" spans="21:21">
+      <c r="U54" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
